--- a/results/humanPVATsn/pathfindR/comparison1v3/early_pre_healthy_vs_obese_excel.xlsx
+++ b/results/humanPVATsn/pathfindR/comparison1v3/early_pre_healthy_vs_obese_excel.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahbazin/Desktop/Cambridge/Academics/Han_Lab/MPhil/mphil-project/results/humanPVATsn/pathfindR/comparison1v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97757C63-F948-B443-BE39-FA5CB06E5E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB2DEC4-AFE6-5843-85A0-102C05DD70AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{CDEA26D1-3B99-2640-B5B3-FD9546BFD8BB}"/>
+    <workbookView xWindow="-25760" yWindow="0" windowWidth="25760" windowHeight="18920" xr2:uid="{CDEA26D1-3B99-2640-B5B3-FD9546BFD8BB}"/>
   </bookViews>
   <sheets>
     <sheet name="early_pre_healthy_vs_obese" sheetId="1" r:id="rId1"/>
+    <sheet name="healthy only" sheetId="2" r:id="rId2"/>
+    <sheet name="obese only" sheetId="3" r:id="rId3"/>
+    <sheet name="common" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">early_pre_healthy_vs_obese!$E$1:$E$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">early_pre_healthy_vs_obese!$L$1:$L$234</definedName>
   </definedNames>
   <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="1060">
   <si>
     <t>ID</t>
   </si>
@@ -3209,7 +3212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3344,8 +3347,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3537,6 +3555,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -3698,12 +3728,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4082,190 +4121,195 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="K131" sqref="K131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="48.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>216</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>977</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>19.757205240174699</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>1.17054580100721E-2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>4.7492275966101796E-3</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>1.8093717498992998E-2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>980</v>
       </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2">
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="5">
         <v>4.7492275966101796E-3</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>47</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>16.464337700145599</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>1.6020821283979199E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>1.10041884495082E-3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>1.54943217243225E-2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3">
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="5">
         <v>1.10041884495082E-3</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>107</v>
       </c>
@@ -4324,7 +4368,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>83</v>
       </c>
@@ -4381,124 +4425,124 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>103</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>14.817903930130999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>5.3619688344546E-3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>3.1173212595523001E-2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>3.4139069898427701E-2</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6">
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="5">
         <v>3.1173212595523001E-2</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>49</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>12.348253275109199</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>8.4682860998650505E-3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>2.8829557020898099E-4</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>4.1165349844570397E-2</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7">
+      <c r="K7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="5">
         <v>2.8829557020898099E-4</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>61</v>
       </c>
@@ -4554,7 +4598,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>62</v>
       </c>
@@ -4611,239 +4655,240 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>211</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>959</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>960</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>12.348253275109199</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>6</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>5.4210495386966002E-3</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>2.2358091827643398E-2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>2.4300840417852999E-2</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="5" t="s">
         <v>961</v>
       </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="5">
         <v>2.2358091827643398E-2</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>142</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>11.3983876385623</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>1.6685205784204699E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>5.8128428046494505E-4</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>1.32310006195363E-3</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11">
+      <c r="K11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="5">
         <v>5.8128428046494505E-4</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>215</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>973</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>974</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>10.5842170929507</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>10</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>1.0610751477624501E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>5.29892185330202E-3</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>6.1309929229073998E-3</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="5" t="s">
         <v>976</v>
       </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12">
+      <c r="K12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="5">
         <v>5.29892185330202E-3</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>231</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>1045</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>1046</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>10.5842170929507</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>10</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>1.06395019807583E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>1.4868974612911701E-2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>4.1171307483511402E-2</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13">
+      <c r="K13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="5">
         <v>1.4868974612911701E-2</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15</v>
       </c>
@@ -4899,7 +4944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>151</v>
       </c>
@@ -4955,7 +5000,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>177</v>
       </c>
@@ -5015,230 +5060,234 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>184</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>9.8786026200873405</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>1.7558187015108199E-2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <v>2.56448412830419E-2</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>3.7239327285476298E-2</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="5">
         <v>2.56448412830419E-2</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>209</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>951</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>9.8786026200873405</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>5.4354247902634999E-3</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>3.7239327285476298E-2</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>4.3842899299608599E-2</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="K18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="5">
         <v>3.7239327285476298E-2</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>9.2611899563318794</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>10</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>5.3619688344546E-3</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="5">
         <v>2.9063535136546598E-2</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
         <v>4.8800818990526303E-2</v>
       </c>
-      <c r="J19" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19">
+      <c r="K19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="5">
         <v>2.9063535136546598E-2</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>155</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>8.2321688500727799</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>5.4354247902634999E-3</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <v>1.4770805637556699E-3</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <v>6.8058774361912204E-3</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="K20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="5">
         <v>1.4770805637556699E-3</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>171</v>
       </c>
@@ -5297,7 +5346,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>207</v>
       </c>
@@ -5357,118 +5406,120 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="5">
         <v>230</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>1042</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>8.2321688500727799</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>9</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>5.3763440860215101E-3</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="5">
         <v>4.6732259727753099E-2</v>
       </c>
-      <c r="J23" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="s">
         <v>1044</v>
       </c>
-      <c r="K23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="1" t="s">
+      <c r="K23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="5">
         <v>134</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>7.5989250923748699</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>10</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <v>6.0381201804161197E-3</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="5">
         <v>7.8472290129517701E-4</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="5">
         <v>5.9596200665521203E-3</v>
       </c>
-      <c r="J24" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="K24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24">
+      <c r="K24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="5">
         <v>7.8472290129517701E-4</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>138</v>
       </c>
@@ -5527,7 +5578,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>165</v>
       </c>
@@ -5587,65 +5638,65 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="5">
         <v>129</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>6.6490594558280103</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="5">
         <v>10</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <v>2.3489010989010999E-2</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="5">
         <v>8.7291051077538495E-4</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="K27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="1" t="s">
+      <c r="K27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S27" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>135</v>
       </c>
@@ -5705,65 +5756,65 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="5">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>6.1741266375545898</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <v>10</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="5">
         <v>5.3619688344546E-3</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="5">
         <v>6.3379073178556596E-3</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="5">
         <v>7.2382801295680903E-3</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="K29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>20</v>
-      </c>
-      <c r="R29">
+      <c r="K29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="5">
         <v>6.3379073178556596E-3</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>74</v>
       </c>
@@ -5823,62 +5874,63 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="5">
         <v>153</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>6.1741266375545898</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="5">
         <v>10</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="5">
         <v>1.39479448524675E-2</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="5">
         <v>1.4301671849185E-3</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="5">
         <v>8.0974818117064192E-3</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="K31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R31">
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="5">
         <v>1.4301671849185E-3</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S31" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>170</v>
       </c>
@@ -5937,7 +5989,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>64</v>
       </c>
@@ -5996,7 +6048,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>132</v>
       </c>
@@ -6056,124 +6108,124 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="5">
         <v>82</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <v>4.5493564697770603</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="5">
         <v>8</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="5">
         <v>5.3788316946211702E-3</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="5">
         <v>2.6172157322107599E-2</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="5">
         <v>2.9876353755834199E-2</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="K35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" t="s">
-        <v>20</v>
-      </c>
-      <c r="N35" t="s">
-        <v>20</v>
-      </c>
-      <c r="O35" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>20</v>
-      </c>
-      <c r="R35">
+      <c r="K35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="5">
         <v>2.6172157322107599E-2</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S35" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="5">
         <v>16</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="5">
         <v>4.4902739182215203</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="5">
         <v>10</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="5">
         <v>5.3619688344546E-3</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="5">
         <v>2.8590437371830101E-2</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="5">
         <v>3.17393999629315E-2</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36" t="s">
-        <v>20</v>
-      </c>
-      <c r="O36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36">
+      <c r="K36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="5">
         <v>2.8590437371830101E-2</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S36" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>20</v>
       </c>
@@ -6229,7 +6281,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>126</v>
       </c>
@@ -6286,65 +6338,65 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="5">
         <v>131</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="5">
         <v>4.4902739182215203</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="5">
         <v>6</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="5">
         <v>5.1441417614387702E-3</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="5">
         <v>2.79381071291692E-2</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="5">
         <v>3.48317957433458E-2</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="K39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R39">
+      <c r="K39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="5">
         <v>2.79381071291692E-2</v>
       </c>
-      <c r="S39" t="s">
+      <c r="S39" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>67</v>
       </c>
@@ -6518,7 +6570,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>123</v>
       </c>
@@ -6751,7 +6803,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>111</v>
       </c>
@@ -6810,7 +6862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>232</v>
       </c>
@@ -7105,7 +7157,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>73</v>
       </c>
@@ -7276,7 +7328,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>199</v>
       </c>
@@ -7335,7 +7387,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>168</v>
       </c>
@@ -7394,7 +7446,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>133</v>
       </c>
@@ -7512,7 +7564,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>90</v>
       </c>
@@ -7571,7 +7623,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>128</v>
       </c>
@@ -7748,7 +7800,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>160</v>
       </c>
@@ -7804,7 +7856,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>228</v>
       </c>
@@ -7863,7 +7915,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>152</v>
       </c>
@@ -8040,7 +8092,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>57</v>
       </c>
@@ -8217,7 +8269,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>27</v>
       </c>
@@ -8276,7 +8328,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>60</v>
       </c>
@@ -8513,65 +8565,65 @@
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="7">
         <v>115</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="D77" t="s">
-        <v>20</v>
-      </c>
-      <c r="E77" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" t="s">
-        <v>20</v>
-      </c>
-      <c r="J77" t="s">
-        <v>20</v>
-      </c>
-      <c r="K77">
+      <c r="D77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="7">
         <v>15.677061677061699</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="7">
         <v>6</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="7">
         <v>8.0613830613830602E-3</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="7">
         <v>4.56855573639992E-2</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="7">
         <v>4.96112628131564E-2</v>
       </c>
-      <c r="P77" t="s">
+      <c r="P77" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="Q77" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="R77">
+      <c r="R77" s="7">
         <v>4.56855573639992E-2</v>
       </c>
-      <c r="S77" t="s">
+      <c r="S77" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>196</v>
       </c>
@@ -8630,7 +8682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>224</v>
       </c>
@@ -8689,7 +8741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>85</v>
       </c>
@@ -8749,65 +8801,65 @@
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="7">
         <v>147</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="D81" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81" t="s">
-        <v>20</v>
-      </c>
-      <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" t="s">
-        <v>20</v>
-      </c>
-      <c r="I81" t="s">
-        <v>20</v>
-      </c>
-      <c r="J81" t="s">
-        <v>20</v>
-      </c>
-      <c r="K81">
+      <c r="D81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K81" s="7">
         <v>13.4374814374814</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="7">
         <v>10</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="7">
         <v>8.0613830613830602E-3</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="7">
         <v>1.6266064955771899E-4</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="7">
         <v>4.7266941552343697E-3</v>
       </c>
-      <c r="P81" t="s">
+      <c r="P81" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="Q81" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="R81">
+      <c r="R81" s="7">
         <v>1.6266064955771899E-4</v>
       </c>
-      <c r="S81" t="s">
+      <c r="S81" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>70</v>
       </c>
@@ -8864,65 +8916,65 @@
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="7">
         <v>150</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="D83" t="s">
-        <v>20</v>
-      </c>
-      <c r="E83" t="s">
-        <v>20</v>
-      </c>
-      <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83" t="s">
-        <v>20</v>
-      </c>
-      <c r="J83" t="s">
-        <v>20</v>
-      </c>
-      <c r="K83">
+      <c r="D83" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K83" s="7">
         <v>10.4513744513745</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="7">
         <v>10</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="7">
         <v>1.76525561593576E-2</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="7">
         <v>2.5653928190640502E-3</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="7">
         <v>1.7336126876685499E-2</v>
       </c>
-      <c r="P83" t="s">
+      <c r="P83" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="Q83" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="R83">
+      <c r="R83" s="7">
         <v>2.5653928190640502E-3</v>
       </c>
-      <c r="S83" t="s">
+      <c r="S83" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>78</v>
       </c>
@@ -8982,65 +9034,65 @@
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="7">
         <v>93</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="D85" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85" t="s">
-        <v>20</v>
-      </c>
-      <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" t="s">
-        <v>20</v>
-      </c>
-      <c r="J85" t="s">
-        <v>20</v>
-      </c>
-      <c r="K85">
+      <c r="D85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K85" s="7">
         <v>10.0781110781111</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="7">
         <v>9</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="7">
         <v>2.27272727272727E-2</v>
       </c>
-      <c r="N85" s="1" t="s">
+      <c r="N85" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="O85">
+      <c r="O85" s="7">
         <v>1.68266150083201E-3</v>
       </c>
-      <c r="P85" t="s">
+      <c r="P85" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="Q85" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="R85" s="1" t="s">
+      <c r="R85" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="S85" t="s">
+      <c r="S85" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>96</v>
       </c>
@@ -9099,7 +9151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>198</v>
       </c>
@@ -9158,7 +9210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>221</v>
       </c>
@@ -9217,7 +9269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>227</v>
       </c>
@@ -9276,7 +9328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>63</v>
       </c>
@@ -9333,124 +9385,124 @@
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="7">
         <v>145</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="D91" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" t="s">
-        <v>20</v>
-      </c>
-      <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
-      <c r="H91" t="s">
-        <v>20</v>
-      </c>
-      <c r="I91" t="s">
-        <v>20</v>
-      </c>
-      <c r="J91" t="s">
-        <v>20</v>
-      </c>
-      <c r="K91">
+      <c r="D91" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K91" s="7">
         <v>7.8385308385308399</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="7">
         <v>8</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="7">
         <v>1.0078302601667101E-2</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="7">
         <v>4.3842689809036901E-4</v>
       </c>
-      <c r="O91">
+      <c r="O91" s="7">
         <v>9.7946577899477591E-4</v>
       </c>
-      <c r="P91" t="s">
+      <c r="P91" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="Q91" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R91">
+      <c r="R91" s="7">
         <v>4.3842689809036901E-4</v>
       </c>
-      <c r="S91" t="s">
+      <c r="S91" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="7">
         <v>162</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="7" t="s">
         <v>759</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="D92" t="s">
-        <v>20</v>
-      </c>
-      <c r="E92" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H92" t="s">
-        <v>20</v>
-      </c>
-      <c r="I92" t="s">
-        <v>20</v>
-      </c>
-      <c r="J92" t="s">
-        <v>20</v>
-      </c>
-      <c r="K92">
+      <c r="D92" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K92" s="7">
         <v>7.8385308385308399</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="7">
         <v>6</v>
       </c>
-      <c r="M92">
+      <c r="M92" s="7">
         <v>6.8742985409652102E-3</v>
       </c>
-      <c r="N92">
+      <c r="N92" s="7">
         <v>6.9440818427087198E-4</v>
       </c>
-      <c r="O92">
+      <c r="O92" s="7">
         <v>7.9337245006044202E-4</v>
       </c>
-      <c r="P92" t="s">
+      <c r="P92" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="Q92" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="R92">
+      <c r="R92" s="7">
         <v>6.9440818427087198E-4</v>
       </c>
-      <c r="S92" t="s">
+      <c r="S92" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>185</v>
       </c>
@@ -9509,7 +9561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>188</v>
       </c>
@@ -9565,7 +9617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>189</v>
       </c>
@@ -9621,7 +9673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>201</v>
       </c>
@@ -9678,177 +9730,179 @@
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="7">
         <v>212</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="7" t="s">
         <v>963</v>
       </c>
-      <c r="D97" t="s">
-        <v>20</v>
-      </c>
-      <c r="E97" t="s">
-        <v>20</v>
-      </c>
-      <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" t="s">
-        <v>20</v>
-      </c>
-      <c r="I97" t="s">
-        <v>20</v>
-      </c>
-      <c r="J97" t="s">
-        <v>20</v>
-      </c>
-      <c r="K97">
+      <c r="D97" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K97" s="7">
         <v>7.0546777546777504</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="7">
         <v>8</v>
       </c>
-      <c r="M97">
+      <c r="M97" s="7">
         <v>1.15782449115782E-2</v>
       </c>
-      <c r="N97" s="1" t="s">
+      <c r="N97" s="8" t="s">
         <v>964</v>
       </c>
-      <c r="O97">
+      <c r="O97" s="7">
         <v>1.2662899609192001E-2</v>
       </c>
-      <c r="P97" t="s">
+      <c r="P97" s="7" t="s">
         <v>965</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="Q97" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="R97" s="1" t="s">
+      <c r="R97" s="8" t="s">
         <v>964</v>
       </c>
-      <c r="S97" t="s">
+      <c r="S97" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" s="7">
         <v>110</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="D98" t="s">
-        <v>20</v>
-      </c>
-      <c r="E98" t="s">
-        <v>20</v>
-      </c>
-      <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" t="s">
-        <v>20</v>
-      </c>
-      <c r="I98" t="s">
-        <v>20</v>
-      </c>
-      <c r="J98" t="s">
-        <v>20</v>
-      </c>
-      <c r="K98">
+      <c r="D98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K98" s="7">
         <v>6.4133434133434104</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="7">
         <v>6</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="7">
         <v>5.8841853864525298E-3</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="7">
         <v>3.17393999629315E-2</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="7">
         <v>3.8708344107250998E-2</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="R98">
+      <c r="R98" s="7">
         <v>3.17393999629315E-2</v>
       </c>
-      <c r="S98" t="s">
+      <c r="S98" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="7">
         <v>88</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="D99" t="s">
-        <v>20</v>
-      </c>
-      <c r="E99" t="s">
-        <v>20</v>
-      </c>
-      <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>20</v>
-      </c>
-      <c r="H99" t="s">
-        <v>20</v>
-      </c>
-      <c r="I99" t="s">
-        <v>20</v>
-      </c>
-      <c r="J99" t="s">
-        <v>20</v>
-      </c>
-      <c r="K99">
+      <c r="D99" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K99" s="7">
         <v>5.8788981288981299</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="7">
         <v>10</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="7">
         <v>6.0984679458574997E-3</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="7">
         <v>2.2358091827643398E-2</v>
       </c>
-      <c r="O99">
+      <c r="O99" s="7">
         <v>2.8428629515463998E-2</v>
       </c>
-      <c r="P99" t="s">
+      <c r="P99" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="R99">
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7">
         <v>2.2358091827643398E-2</v>
       </c>
-      <c r="S99" t="s">
+      <c r="S99" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>113</v>
       </c>
@@ -9907,7 +9961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>193</v>
       </c>
@@ -9963,7 +10017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>30</v>
       </c>
@@ -10023,65 +10077,65 @@
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="A103" s="7">
         <v>81</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="D103" t="s">
-        <v>20</v>
-      </c>
-      <c r="E103" t="s">
-        <v>20</v>
-      </c>
-      <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>20</v>
-      </c>
-      <c r="H103" t="s">
-        <v>20</v>
-      </c>
-      <c r="I103" t="s">
-        <v>20</v>
-      </c>
-      <c r="J103" t="s">
-        <v>20</v>
-      </c>
-      <c r="K103">
+      <c r="D103" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K103" s="7">
         <v>5.42667519590597</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="7">
         <v>9</v>
       </c>
-      <c r="M103">
+      <c r="M103" s="7">
         <v>1.7341040462427699E-2</v>
       </c>
-      <c r="N103">
+      <c r="N103" s="7">
         <v>1.17082300419897E-3</v>
       </c>
-      <c r="O103">
+      <c r="O103" s="7">
         <v>3.6214021844020198E-3</v>
       </c>
-      <c r="P103" t="s">
+      <c r="P103" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="Q103" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="R103">
+      <c r="R103" s="7">
         <v>1.17082300419897E-3</v>
       </c>
-      <c r="S103" t="s">
+      <c r="S103" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>141</v>
       </c>
@@ -10137,7 +10191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>97</v>
       </c>
@@ -10196,7 +10250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>98</v>
       </c>
@@ -10252,7 +10306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>163</v>
       </c>
@@ -10311,7 +10365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>229</v>
       </c>
@@ -10367,7 +10421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>5</v>
       </c>
@@ -10426,7 +10480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>219</v>
       </c>
@@ -10483,124 +10537,124 @@
       </c>
     </row>
     <row r="111" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
+      <c r="A111" s="7">
         <v>226</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="7" t="s">
         <v>1028</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="7" t="s">
         <v>1029</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K111" s="2">
+      <c r="D111" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K111" s="7">
         <v>4.7031185031184997</v>
       </c>
-      <c r="L111" s="2">
+      <c r="L111" s="7">
         <v>10</v>
       </c>
-      <c r="M111" s="2">
+      <c r="M111" s="7">
         <v>1.76525561593576E-2</v>
       </c>
-      <c r="N111" s="2">
+      <c r="N111" s="7">
         <v>1.6415906320580601E-2</v>
       </c>
-      <c r="O111" s="2">
+      <c r="O111" s="7">
         <v>2.4124771774381801E-2</v>
       </c>
-      <c r="P111" s="2" t="s">
+      <c r="P111" s="7" t="s">
         <v>1030</v>
       </c>
-      <c r="Q111" s="2" t="s">
+      <c r="Q111" s="7" t="s">
         <v>1031</v>
       </c>
-      <c r="R111" s="2">
+      <c r="R111" s="7">
         <v>1.6415906320580601E-2</v>
       </c>
-      <c r="S111" s="2" t="s">
+      <c r="S111" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="A112" s="7">
         <v>144</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="D112" t="s">
-        <v>20</v>
-      </c>
-      <c r="E112" t="s">
-        <v>20</v>
-      </c>
-      <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s">
-        <v>20</v>
-      </c>
-      <c r="H112" t="s">
-        <v>20</v>
-      </c>
-      <c r="I112" t="s">
-        <v>20</v>
-      </c>
-      <c r="J112" t="s">
-        <v>20</v>
-      </c>
-      <c r="K112">
+      <c r="D112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K112" s="7">
         <v>4.4488958813283102</v>
       </c>
-      <c r="L112">
+      <c r="L112" s="7">
         <v>6</v>
       </c>
-      <c r="M112">
+      <c r="M112" s="7">
         <v>8.0613830613830602E-3</v>
       </c>
-      <c r="N112">
+      <c r="N112" s="7">
         <v>3.5293794227641E-2</v>
       </c>
-      <c r="O112">
+      <c r="O112" s="7">
         <v>4.9433948718557302E-2</v>
       </c>
-      <c r="P112" t="s">
+      <c r="P112" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="Q112" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="R112">
+      <c r="R112" s="7">
         <v>3.5293794227641E-2</v>
       </c>
-      <c r="S112" t="s">
+      <c r="S112" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>69</v>
       </c>
@@ -10659,7 +10713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>80</v>
       </c>
@@ -10715,7 +10769,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>94</v>
       </c>
@@ -10774,7 +10828,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>176</v>
       </c>
@@ -10833,7 +10887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>34</v>
       </c>
@@ -10892,7 +10946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>84</v>
       </c>
@@ -10951,7 +11005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>45</v>
       </c>
@@ -11008,124 +11062,124 @@
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="A120" s="7">
         <v>95</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="D120" t="s">
-        <v>20</v>
-      </c>
-      <c r="E120" t="s">
-        <v>20</v>
-      </c>
-      <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s">
-        <v>20</v>
-      </c>
-      <c r="H120" t="s">
-        <v>20</v>
-      </c>
-      <c r="I120" t="s">
-        <v>20</v>
-      </c>
-      <c r="J120" t="s">
-        <v>20</v>
-      </c>
-      <c r="K120">
+      <c r="D120" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K120" s="7">
         <v>3.9192654192654199</v>
       </c>
-      <c r="L120">
+      <c r="L120" s="7">
         <v>9</v>
       </c>
-      <c r="M120">
+      <c r="M120" s="7">
         <v>1.8072289156626498E-2</v>
       </c>
-      <c r="N120">
+      <c r="N120" s="7">
         <v>1.18778117329381E-4</v>
       </c>
-      <c r="O120">
+      <c r="O120" s="7">
         <v>1.9401679912995099E-4</v>
       </c>
-      <c r="P120" t="s">
+      <c r="P120" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="Q120" t="s">
+      <c r="Q120" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="R120">
+      <c r="R120" s="7">
         <v>1.18778117329381E-4</v>
       </c>
-      <c r="S120" t="s">
+      <c r="S120" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="A121" s="7">
         <v>112</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="D121" t="s">
-        <v>20</v>
-      </c>
-      <c r="E121" t="s">
-        <v>20</v>
-      </c>
-      <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>20</v>
-      </c>
-      <c r="H121" t="s">
-        <v>20</v>
-      </c>
-      <c r="I121" t="s">
-        <v>20</v>
-      </c>
-      <c r="J121" t="s">
-        <v>20</v>
-      </c>
-      <c r="K121">
+      <c r="D121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K121" s="7">
         <v>3.9192654192654199</v>
       </c>
-      <c r="L121">
+      <c r="L121" s="7">
         <v>9</v>
       </c>
-      <c r="M121">
+      <c r="M121" s="7">
         <v>8.5470085470085496E-3</v>
       </c>
-      <c r="N121">
+      <c r="N121" s="7">
         <v>1.04466180043159E-3</v>
       </c>
-      <c r="O121">
+      <c r="O121" s="7">
         <v>4.5480988272880198E-2</v>
       </c>
-      <c r="P121" t="s">
+      <c r="P121" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="Q121" t="s">
+      <c r="Q121" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="R121">
+      <c r="R121" s="7">
         <v>1.04466180043159E-3</v>
       </c>
-      <c r="S121" t="s">
+      <c r="S121" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>148</v>
       </c>
@@ -11182,65 +11236,65 @@
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="A123" s="7">
         <v>154</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="D123" t="s">
-        <v>20</v>
-      </c>
-      <c r="E123" t="s">
-        <v>20</v>
-      </c>
-      <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>20</v>
-      </c>
-      <c r="H123" t="s">
-        <v>20</v>
-      </c>
-      <c r="I123" t="s">
-        <v>20</v>
-      </c>
-      <c r="J123" t="s">
-        <v>20</v>
-      </c>
-      <c r="K123">
+      <c r="D123" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" s="7">
         <v>3.7624948024948002</v>
       </c>
-      <c r="L123">
+      <c r="L123" s="7">
         <v>8</v>
       </c>
-      <c r="M123">
+      <c r="M123" s="7">
         <v>1.10900647684223E-2</v>
       </c>
-      <c r="N123">
+      <c r="N123" s="7">
         <v>6.2631695085686497E-3</v>
       </c>
-      <c r="O123">
+      <c r="O123" s="7">
         <v>2.4124771774381801E-2</v>
       </c>
-      <c r="P123" t="s">
+      <c r="P123" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="Q123" t="s">
+      <c r="Q123" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="R123">
+      <c r="R123" s="7">
         <v>6.2631695085686497E-3</v>
       </c>
-      <c r="S123" t="s">
+      <c r="S123" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>39</v>
       </c>
@@ -11299,7 +11353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>8</v>
       </c>
@@ -11359,62 +11413,63 @@
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="A126" s="7">
         <v>13</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D126" t="s">
-        <v>20</v>
-      </c>
-      <c r="E126" t="s">
-        <v>20</v>
-      </c>
-      <c r="F126" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" t="s">
-        <v>20</v>
-      </c>
-      <c r="H126" t="s">
-        <v>20</v>
-      </c>
-      <c r="I126" t="s">
-        <v>20</v>
-      </c>
-      <c r="J126" t="s">
-        <v>20</v>
-      </c>
-      <c r="K126">
+      <c r="D126" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K126" s="7">
         <v>3.3593703593703599</v>
       </c>
-      <c r="L126">
+      <c r="L126" s="7">
         <v>8</v>
       </c>
-      <c r="M126">
+      <c r="M126" s="7">
         <v>6.8742985409652102E-3</v>
       </c>
-      <c r="N126">
+      <c r="N126" s="7">
         <v>2.62370826473266E-3</v>
       </c>
-      <c r="O126">
+      <c r="O126" s="7">
         <v>3.8614211088697399E-3</v>
       </c>
-      <c r="Q126" t="s">
+      <c r="P126" s="7"/>
+      <c r="Q126" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="R126">
+      <c r="R126" s="7">
         <v>2.62370826473266E-3</v>
       </c>
-      <c r="S126" t="s">
+      <c r="S126" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>59</v>
       </c>
@@ -11473,7 +11528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>181</v>
       </c>
@@ -11529,7 +11584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>75</v>
       </c>
@@ -11588,7 +11643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2</v>
       </c>
@@ -11648,124 +11703,124 @@
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="A131" s="7">
         <v>7</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D131" t="s">
-        <v>20</v>
-      </c>
-      <c r="E131" t="s">
-        <v>20</v>
-      </c>
-      <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s">
-        <v>20</v>
-      </c>
-      <c r="H131" t="s">
-        <v>20</v>
-      </c>
-      <c r="I131" t="s">
-        <v>20</v>
-      </c>
-      <c r="J131" t="s">
-        <v>20</v>
-      </c>
-      <c r="K131">
+      <c r="D131" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K131" s="7">
         <v>3.1354123354123402</v>
       </c>
-      <c r="L131">
+      <c r="L131" s="7">
         <v>6</v>
       </c>
-      <c r="M131">
+      <c r="M131" s="7">
         <v>6.8742985409652102E-3</v>
       </c>
-      <c r="N131">
+      <c r="N131" s="7">
         <v>1.2468503878192399E-3</v>
       </c>
-      <c r="O131">
+      <c r="O131" s="7">
         <v>1.2468503878192399E-3</v>
       </c>
-      <c r="P131" t="s">
+      <c r="P131" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="Q131" t="s">
+      <c r="Q131" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R131">
+      <c r="R131" s="7">
         <v>1.2468503878192399E-3</v>
       </c>
-      <c r="S131" t="s">
+      <c r="S131" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="A132" s="7">
         <v>117</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="D132" t="s">
-        <v>20</v>
-      </c>
-      <c r="E132" t="s">
-        <v>20</v>
-      </c>
-      <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s">
-        <v>20</v>
-      </c>
-      <c r="H132" t="s">
-        <v>20</v>
-      </c>
-      <c r="I132" t="s">
-        <v>20</v>
-      </c>
-      <c r="J132" t="s">
-        <v>20</v>
-      </c>
-      <c r="K132">
+      <c r="D132" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K132" s="7">
         <v>3.1354123354123402</v>
       </c>
-      <c r="L132">
+      <c r="L132" s="7">
         <v>10</v>
       </c>
-      <c r="M132">
+      <c r="M132" s="7">
         <v>6.0984679458574997E-3</v>
       </c>
-      <c r="N132">
+      <c r="N132" s="7">
         <v>1.1369557343216901E-3</v>
       </c>
-      <c r="O132">
+      <c r="O132" s="7">
         <v>1.7663817978704199E-3</v>
       </c>
-      <c r="P132" t="s">
+      <c r="P132" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="Q132" t="s">
+      <c r="Q132" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="R132">
+      <c r="R132" s="7">
         <v>1.1369557343216901E-3</v>
       </c>
-      <c r="S132" t="s">
+      <c r="S132" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>213</v>
       </c>
@@ -11825,120 +11880,120 @@
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="A134" s="7">
         <v>175</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="7" t="s">
         <v>816</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="D134" t="s">
-        <v>20</v>
-      </c>
-      <c r="E134" t="s">
-        <v>20</v>
-      </c>
-      <c r="F134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" t="s">
-        <v>20</v>
-      </c>
-      <c r="H134" t="s">
-        <v>20</v>
-      </c>
-      <c r="I134" t="s">
-        <v>20</v>
-      </c>
-      <c r="J134" t="s">
-        <v>20</v>
-      </c>
-      <c r="K134">
+      <c r="D134" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J134" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K134" s="7">
         <v>3.0672511976859802</v>
       </c>
-      <c r="L134">
+      <c r="L134" s="7">
         <v>7</v>
       </c>
-      <c r="M134">
+      <c r="M134" s="7">
         <v>6.0240963855421699E-3</v>
       </c>
-      <c r="N134">
+      <c r="N134" s="7">
         <v>4.0400499103470499E-3</v>
       </c>
-      <c r="O134">
+      <c r="O134" s="7">
         <v>4.5510873649310599E-2</v>
       </c>
-      <c r="P134" t="s">
+      <c r="P134" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q134" t="s">
+      <c r="Q134" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="R134">
+      <c r="R134" s="7">
         <v>4.0400499103470499E-3</v>
       </c>
-      <c r="S134" t="s">
+      <c r="S134" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A135">
+      <c r="A135" s="7">
         <v>53</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D135" t="s">
-        <v>20</v>
-      </c>
-      <c r="E135" t="s">
-        <v>20</v>
-      </c>
-      <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s">
-        <v>20</v>
-      </c>
-      <c r="H135" t="s">
-        <v>20</v>
-      </c>
-      <c r="I135" t="s">
-        <v>20</v>
-      </c>
-      <c r="J135" t="s">
-        <v>20</v>
-      </c>
-      <c r="K135">
+      <c r="D135" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K135" s="7">
         <v>2.7343712227433201</v>
       </c>
-      <c r="L135">
+      <c r="L135" s="7">
         <v>8</v>
       </c>
-      <c r="M135">
+      <c r="M135" s="7">
         <v>9.8275363715194103E-3</v>
       </c>
-      <c r="N135">
+      <c r="N135" s="7">
         <v>4.5347951361872E-4</v>
       </c>
-      <c r="O135">
+      <c r="O135" s="7">
         <v>4.5033211006064902E-2</v>
       </c>
-      <c r="P135" t="s">
+      <c r="P135" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="Q135" t="s">
+      <c r="Q135" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="R135">
+      <c r="R135" s="7">
         <v>4.5347951361872E-4</v>
       </c>
-      <c r="S135" t="s">
+      <c r="S135" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -12001,7 +12056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>130</v>
       </c>
@@ -12060,7 +12115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>119</v>
       </c>
@@ -12234,7 +12289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>120</v>
       </c>
@@ -12293,7 +12348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>14</v>
       </c>
@@ -12349,7 +12404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>121</v>
       </c>
@@ -12408,7 +12463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>54</v>
       </c>
@@ -12526,7 +12581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>42</v>
       </c>
@@ -12585,7 +12640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>178</v>
       </c>
@@ -12641,7 +12696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>101</v>
       </c>
@@ -12700,7 +12755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>169</v>
       </c>
@@ -12995,7 +13050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>191</v>
       </c>
@@ -13054,7 +13109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>197</v>
       </c>
@@ -13113,7 +13168,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>100</v>
       </c>
@@ -13284,7 +13339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>182</v>
       </c>
@@ -13691,7 +13746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>3</v>
       </c>
@@ -13744,7 +13799,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>105</v>
       </c>
@@ -13862,7 +13917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>127</v>
       </c>
@@ -13921,7 +13976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>68</v>
       </c>
@@ -14198,7 +14253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>36</v>
       </c>
@@ -14257,7 +14312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>23</v>
       </c>
@@ -14316,7 +14371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>143</v>
       </c>
@@ -14493,7 +14548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>106</v>
       </c>
@@ -14549,7 +14604,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>29</v>
       </c>
@@ -14962,7 +15017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>102</v>
       </c>
@@ -15136,7 +15191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>6</v>
       </c>
@@ -15254,7 +15309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>37</v>
       </c>
@@ -15717,7 +15772,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>9</v>
       </c>
@@ -15776,7 +15831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>166</v>
       </c>
@@ -15888,7 +15943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:19" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>222</v>
       </c>
@@ -16006,7 +16061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>210</v>
       </c>
@@ -16124,7 +16179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>19</v>
       </c>
@@ -16183,7 +16238,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>139</v>
       </c>
@@ -16360,7 +16415,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>24</v>
       </c>
@@ -16419,7 +16474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>32</v>
       </c>
@@ -16596,7 +16651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>124</v>
       </c>
@@ -16891,7 +16946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>4</v>
       </c>
@@ -16950,7 +17005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>55</v>
       </c>
@@ -17124,7 +17179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>192</v>
       </c>
@@ -17413,7 +17468,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>56</v>
       </c>
@@ -17709,11 +17764,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E234" xr:uid="{B0A539D1-1CB0-6345-826D-28C73A0143EC}">
+  <autoFilter ref="L1:L234" xr:uid="{B0A539D1-1CB0-6345-826D-28C73A0143EC}">
     <filterColumn colId="0">
       <filters>
         <filter val="10"/>
-        <filter val="5"/>
         <filter val="6"/>
         <filter val="7"/>
         <filter val="8"/>
@@ -17722,9 +17776,2105 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S235">
-    <sortCondition ref="S1:S235"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S233">
+    <sortCondition ref="S2:S234"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A57E9BB-7F20-BF4B-A711-5865A1B1282E}">
+  <dimension ref="A1:S21"/>
+  <sheetViews>
+    <sheetView zoomScale="159" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="67" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>216</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="D2" s="5">
+        <v>19.757205240174699</v>
+      </c>
+      <c r="E2" s="5">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1.17054580100721E-2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>4.7492275966101796E-3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.8093717498992998E-2</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="5">
+        <v>4.7492275966101796E-3</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="5">
+        <v>16.464337700145599</v>
+      </c>
+      <c r="E3" s="5">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.6020821283979199E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.10041884495082E-3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1.54943217243225E-2</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="5">
+        <v>1.10041884495082E-3</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>103</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D4" s="5">
+        <v>14.817903930130999</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5.3619688344546E-3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3.1173212595523001E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.4139069898427701E-2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="5">
+        <v>3.1173212595523001E-2</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="5">
+        <v>12.348253275109199</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <v>8.4682860998650505E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2.8829557020898099E-4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4.1165349844570397E-2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2.8829557020898099E-4</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>211</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="D6" s="5">
+        <v>12.348253275109199</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5.4210495386966002E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.2358091827643398E-2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2.4300840417852999E-2</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="5">
+        <v>2.2358091827643398E-2</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>142</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="D7" s="5">
+        <v>11.3983876385623</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1.6685205784204699E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5.8128428046494505E-4</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.32310006195363E-3</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="5">
+        <v>5.8128428046494505E-4</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>215</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10.5842170929507</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.0610751477624501E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>5.29892185330202E-3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>6.1309929229073998E-3</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R8" s="5">
+        <v>5.29892185330202E-3</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>231</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10.5842170929507</v>
+      </c>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.06395019807583E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1.4868974612911701E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4.1171307483511402E-2</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1.4868974612911701E-2</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>184</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9.8786026200873405</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1.7558187015108199E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2.56448412830419E-2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3.7239327285476298E-2</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="5">
+        <v>2.56448412830419E-2</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>209</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="D11" s="5">
+        <v>9.8786026200873405</v>
+      </c>
+      <c r="E11" s="5">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5.4354247902634999E-3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3.7239327285476298E-2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4.3842899299608599E-2</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="5">
+        <v>3.7239327285476298E-2</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>51</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="5">
+        <v>9.2611899563318794</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
+        <v>5.3619688344546E-3</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2.9063535136546598E-2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4.8800818990526303E-2</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="5">
+        <v>2.9063535136546598E-2</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>155</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8.2321688500727799</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5.4354247902634999E-3</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1.4770805637556699E-3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>6.8058774361912204E-3</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1.4770805637556699E-3</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>230</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8.2321688500727799</v>
+      </c>
+      <c r="E14" s="5">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5.3763440860215101E-3</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4.6732259727753099E-2</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>134</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="D15" s="5">
+        <v>7.5989250923748699</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5">
+        <v>6.0381201804161197E-3</v>
+      </c>
+      <c r="G15" s="5">
+        <v>7.8472290129517701E-4</v>
+      </c>
+      <c r="H15" s="5">
+        <v>5.9596200665521203E-3</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="5">
+        <v>7.8472290129517701E-4</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>129</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D16" s="5">
+        <v>6.6490594558280103</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2.3489010989010999E-2</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="H16" s="5">
+        <v>8.7291051077538495E-4</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="5">
+        <v>6.1741266375545898</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5">
+        <v>5.3619688344546E-3</v>
+      </c>
+      <c r="G17" s="5">
+        <v>6.3379073178556596E-3</v>
+      </c>
+      <c r="H17" s="5">
+        <v>7.2382801295680903E-3</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="5">
+        <v>6.3379073178556596E-3</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>153</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6.1741266375545898</v>
+      </c>
+      <c r="E18" s="5">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1.39479448524675E-2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1.4301671849185E-3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>8.0974818117064192E-3</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1.4301671849185E-3</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>82</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4.5493564697770603</v>
+      </c>
+      <c r="E19" s="5">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5">
+        <v>5.3788316946211702E-3</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2.6172157322107599E-2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2.9876353755834199E-2</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="5">
+        <v>2.6172157322107599E-2</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4.4902739182215203</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5">
+        <v>5.3619688344546E-3</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2.8590437371830101E-2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3.17393999629315E-2</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="5">
+        <v>2.8590437371830101E-2</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>131</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>631</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4.4902739182215203</v>
+      </c>
+      <c r="E21" s="5">
+        <v>6</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5.1441417614387702E-3</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2.79381071291692E-2</v>
+      </c>
+      <c r="H21" s="5">
+        <v>3.48317957433458E-2</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="5">
+        <v>2.79381071291692E-2</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21714D12-6BA4-174A-A3B1-E5F50CA13A1A}">
+  <dimension ref="A1:X21"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="58" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>115</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="D2" s="7">
+        <v>15.677061677061699</v>
+      </c>
+      <c r="E2" s="7">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7">
+        <v>8.0613830613830602E-3</v>
+      </c>
+      <c r="G2" s="7">
+        <v>4.56855573639992E-2</v>
+      </c>
+      <c r="H2" s="7">
+        <v>4.96112628131564E-2</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="K2" s="7">
+        <v>4.56855573639992E-2</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>147</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="D3" s="7">
+        <v>13.4374814374814</v>
+      </c>
+      <c r="E3" s="7">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7">
+        <v>8.0613830613830602E-3</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.6266064955771899E-4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>4.7266941552343697E-3</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1.6266064955771899E-4</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>150</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10.4513744513745</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.76525561593576E-2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2.5653928190640502E-3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1.7336126876685499E-2</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2.5653928190640502E-3</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>93</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10.0781110781111</v>
+      </c>
+      <c r="E5" s="7">
+        <v>9</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2.27272727272727E-2</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1.68266150083201E-3</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>145</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7.8385308385308399</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1.0078302601667101E-2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>4.3842689809036901E-4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>9.7946577899477591E-4</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="7">
+        <v>4.3842689809036901E-4</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>162</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7.8385308385308399</v>
+      </c>
+      <c r="E7" s="7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7">
+        <v>6.8742985409652102E-3</v>
+      </c>
+      <c r="G7" s="7">
+        <v>6.9440818427087198E-4</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7.9337245006044202E-4</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="K7" s="7">
+        <v>6.9440818427087198E-4</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>212</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7.0546777546777504</v>
+      </c>
+      <c r="E8" s="7">
+        <v>8</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1.15782449115782E-2</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1.2662899609192001E-2</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>110</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6.4133434133434104</v>
+      </c>
+      <c r="E9" s="7">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5.8841853864525298E-3</v>
+      </c>
+      <c r="G9" s="7">
+        <v>3.17393999629315E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3.8708344107250998E-2</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K9" s="7">
+        <v>3.17393999629315E-2</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>88</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5.8788981288981299</v>
+      </c>
+      <c r="E10" s="7">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7">
+        <v>6.0984679458574997E-3</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2.2358091827643398E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2.8428629515463998E-2</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7">
+        <v>2.2358091827643398E-2</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>81</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5.42667519590597</v>
+      </c>
+      <c r="E11" s="7">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.7341040462427699E-2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1.17082300419897E-3</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3.6214021844020198E-3</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1.17082300419897E-3</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>226</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4.7031185031184997</v>
+      </c>
+      <c r="E12" s="7">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1.76525561593576E-2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1.6415906320580601E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2.4124771774381801E-2</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1.6415906320580601E-2</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>144</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4.4488958813283102</v>
+      </c>
+      <c r="E13" s="7">
+        <v>6</v>
+      </c>
+      <c r="F13" s="7">
+        <v>8.0613830613830602E-3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>3.5293794227641E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4.9433948718557302E-2</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="K13" s="7">
+        <v>3.5293794227641E-2</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>95</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3.9192654192654199</v>
+      </c>
+      <c r="E14" s="7">
+        <v>9</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1.8072289156626498E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1.18778117329381E-4</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1.9401679912995099E-4</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1.18778117329381E-4</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>112</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3.9192654192654199</v>
+      </c>
+      <c r="E15" s="7">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7">
+        <v>8.5470085470085496E-3</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1.04466180043159E-3</v>
+      </c>
+      <c r="H15" s="7">
+        <v>4.5480988272880198E-2</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1.04466180043159E-3</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>154</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3.7624948024948002</v>
+      </c>
+      <c r="E16" s="7">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1.10900647684223E-2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>6.2631695085686497E-3</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2.4124771774381801E-2</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="K16" s="7">
+        <v>6.2631695085686497E-3</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3.3593703593703599</v>
+      </c>
+      <c r="E17" s="7">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7">
+        <v>6.8742985409652102E-3</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2.62370826473266E-3</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3.8614211088697399E-3</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="7">
+        <v>2.62370826473266E-3</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>7</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3.1354123354123402</v>
+      </c>
+      <c r="E18" s="7">
+        <v>6</v>
+      </c>
+      <c r="F18" s="7">
+        <v>6.8742985409652102E-3</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1.2468503878192399E-3</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1.2468503878192399E-3</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1.2468503878192399E-3</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>117</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3.1354123354123402</v>
+      </c>
+      <c r="E19" s="7">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7">
+        <v>6.0984679458574997E-3</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1.1369557343216901E-3</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1.7663817978704199E-3</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1.1369557343216901E-3</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>175</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3.0672511976859802</v>
+      </c>
+      <c r="E20" s="7">
+        <v>7</v>
+      </c>
+      <c r="F20" s="7">
+        <v>6.0240963855421699E-3</v>
+      </c>
+      <c r="G20" s="7">
+        <v>4.0400499103470499E-3</v>
+      </c>
+      <c r="H20" s="7">
+        <v>4.5510873649310599E-2</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="K20" s="7">
+        <v>4.0400499103470499E-3</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>53</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2.7343712227433201</v>
+      </c>
+      <c r="E21" s="7">
+        <v>8</v>
+      </c>
+      <c r="F21" s="7">
+        <v>9.8275363715194103E-3</v>
+      </c>
+      <c r="G21" s="7">
+        <v>4.5347951361872E-4</v>
+      </c>
+      <c r="H21" s="7">
+        <v>4.5033211006064902E-2</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K21" s="7">
+        <v>4.5347951361872E-4</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8770A7A6-F6D4-9A4C-93E6-C0FEE4019832}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>